--- a/Personal/Time Sheet_October_2023_Saklayen.xlsx
+++ b/Personal/Time Sheet_October_2023_Saklayen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asaklayen\Documents\App\MyAppData\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D61652-760B-4AF4-8575-4743B5A32365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414FBC94-A3FE-4DB6-8FC2-8479DD4F2BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="769" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="769" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="3" state="hidden" r:id="rId1"/>
@@ -1562,8 +1562,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>868680</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2288,8 +2288,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>868680</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2409,8 +2409,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>868680</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3638,127 +3638,127 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
-        <f>SUM(H12:H15)</f>
+        <f t="shared" ref="H16:AL16" si="2">SUM(H12:H15)</f>
         <v>8</v>
       </c>
       <c r="I16" s="3">
-        <f>SUM(I12:I15)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="J16" s="3">
-        <f>SUM(J12:J15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K16" s="3">
-        <f>SUM(K12:K15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16" s="3">
-        <f>SUM(L12:L15)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M16" s="3">
-        <f>SUM(M12:M15)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="N16" s="3">
-        <f>SUM(N12:N15)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O16" s="3">
-        <f>SUM(O12:O15)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="P16" s="3">
-        <f>SUM(P12:P15)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Q16" s="3">
-        <f>SUM(Q12:Q15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R16" s="3">
-        <f>SUM(R12:R15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S16" s="3">
-        <f>SUM(S12:S15)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="T16" s="3">
-        <f>SUM(T12:T15)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="U16" s="3">
-        <f>SUM(U12:U15)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="V16" s="3">
-        <f>SUM(V12:V15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W16" s="3">
-        <f>SUM(W12:W15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X16" s="3">
-        <f>SUM(X12:X15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y16" s="3">
-        <f>SUM(Y12:Y15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z16" s="3">
-        <f>SUM(Z12:Z15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA16" s="3">
-        <f>SUM(AA12:AA15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB16" s="3">
-        <f>SUM(AB12:AB15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC16" s="3">
-        <f>SUM(AC12:AC15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD16" s="3">
-        <f>SUM(AD12:AD15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE16" s="3">
-        <f>SUM(AE12:AE15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF16" s="3">
-        <f>SUM(AF12:AF15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG16" s="3">
-        <f>SUM(AG12:AG15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH16" s="3">
-        <f>SUM(AH12:AH15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI16" s="3">
-        <f>SUM(AI12:AI15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ16" s="3">
-        <f>SUM(AJ12:AJ15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK16" s="3">
-        <f>SUM(AK12:AK15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL16" s="3">
-        <f>SUM(AL12:AL15)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="AM16" s="4"/>
@@ -9308,8 +9308,8 @@
   </sheetPr>
   <dimension ref="A1:AP148"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO14" sqref="AO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10213,6 +10213,10 @@
         <v>1</v>
       </c>
       <c r="AM17" s="4"/>
+      <c r="AN17" s="2">
+        <f>AK17+'May 23'!AM15+'June 23'!AL14+'July 23'!AM15+'August 23'!AM15+'September 23'!AL14+'October 23'!AM15</f>
+        <v>141</v>
+      </c>
     </row>
     <row r="18" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
@@ -14394,7 +14398,7 @@
   </sheetPr>
   <dimension ref="A1:AQ147"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -15642,7 +15646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AP147"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:G14"/>
     </sheetView>
   </sheetViews>
@@ -16860,7 +16864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AQ149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
@@ -17826,127 +17830,127 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3">
-        <f>SUM(H13:H18)</f>
+        <f t="shared" ref="H19:AL19" si="2">SUM(H13:H18)</f>
         <v>8</v>
       </c>
       <c r="I19" s="3">
-        <f>SUM(I13:I18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="J19" s="3">
-        <f>SUM(J13:J18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K19" s="3">
-        <f>SUM(K13:K18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="L19" s="3">
-        <f>SUM(L13:L18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M19" s="3">
-        <f>SUM(M13:M18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N19" s="3">
-        <f>SUM(N13:N18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O19" s="3">
-        <f>SUM(O13:O18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="P19" s="3">
-        <f>SUM(P13:P18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Q19" s="3">
-        <f>SUM(Q13:Q18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="R19" s="3">
-        <f>SUM(R13:R18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="S19" s="3">
-        <f>SUM(S13:S18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="T19" s="3">
-        <f>SUM(T13:T18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U19" s="3">
-        <f>SUM(U13:U18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V19" s="3">
-        <f>SUM(V13:V18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="W19" s="3">
-        <f>SUM(W13:W18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="X19" s="3">
-        <f>SUM(X13:X18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Y19" s="3">
-        <f>SUM(Y13:Y18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Z19" s="3">
-        <f>SUM(Z13:Z18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AA19" s="3">
-        <f>SUM(AA13:AA18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB19" s="3">
-        <f>SUM(AB13:AB18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC19" s="3">
-        <f>SUM(AC13:AC18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AD19" s="3">
-        <f>SUM(AD13:AD18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AE19" s="3">
-        <f>SUM(AE13:AE18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AF19" s="3">
-        <f>SUM(AF13:AF18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AG19" s="3">
-        <f>SUM(AG13:AG18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AH19" s="3">
-        <f>SUM(AH13:AH18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI19" s="3">
-        <f>SUM(AI13:AI18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ19" s="3">
-        <f>SUM(AJ13:AJ18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AK19" s="3">
-        <f>SUM(AK13:AK18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AL19" s="43">
-        <f>SUM(AL13:AL18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AM19" s="3">
